--- a/course-outline/Proposed_AzureSnowFlake_LearningPath_v1.4.xlsx
+++ b/course-outline/Proposed_AzureSnowFlake_LearningPath_v1.4.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\om\Desktop\DE-WithSnowflake\course-outline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D82D43-070A-486F-919E-903659DF2A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44331476-1AEF-4EC5-B3AF-7D2702AEB685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Requisite" sheetId="1" r:id="rId1"/>
     <sheet name="TOC" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="259">
   <si>
     <t>Pre-Requisite</t>
   </si>
@@ -697,12 +698,120 @@
   <si>
     <t>5. Synchronization of orders across multiple channels (omnichannel retail)</t>
   </si>
+  <si>
+    <t>Mahi Singh</t>
+  </si>
+  <si>
+    <t>Siddharth Shrivastav</t>
+  </si>
+  <si>
+    <t>Md Saif Ali</t>
+  </si>
+  <si>
+    <t>Rohit Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Malla Dhanraj</t>
+  </si>
+  <si>
+    <t>Aashruti Raj Singh</t>
+  </si>
+  <si>
+    <t>Abishek Nair</t>
+  </si>
+  <si>
+    <t>Tejas Singh</t>
+  </si>
+  <si>
+    <t>Gaurav Singh</t>
+  </si>
+  <si>
+    <t>Vivek KP</t>
+  </si>
+  <si>
+    <t>Yash Saxena</t>
+  </si>
+  <si>
+    <t>Shivendra Tripathi</t>
+  </si>
+  <si>
+    <t>Ravi Kumar</t>
+  </si>
+  <si>
+    <t>Govind Polireddi</t>
+  </si>
+  <si>
+    <t>Vantepaka Ramya</t>
+  </si>
+  <si>
+    <t>Johan Naizu</t>
+  </si>
+  <si>
+    <t>Kanchumarthi Damaruka Siddivinayaka</t>
+  </si>
+  <si>
+    <t>Prabhat Kumar Malviya</t>
+  </si>
+  <si>
+    <t>Pratima Prit</t>
+  </si>
+  <si>
+    <t>Satya Prakash Mahour</t>
+  </si>
+  <si>
+    <t>Nihar Mishra</t>
+  </si>
+  <si>
+    <t>Vedant Sandesh Narkhede</t>
+  </si>
+  <si>
+    <t>Harsh Soni</t>
+  </si>
+  <si>
+    <t>Adarsh Pal</t>
+  </si>
+  <si>
+    <t>Utkarsh Tiwari</t>
+  </si>
+  <si>
+    <t>Zuned Aalim</t>
+  </si>
+  <si>
+    <t>Shivani Narwariya</t>
+  </si>
+  <si>
+    <t>Rishika Dhote</t>
+  </si>
+  <si>
+    <t>Teja Manikanta</t>
+  </si>
+  <si>
+    <t>Rutuja Narayan Tosur</t>
+  </si>
+  <si>
+    <t>Navaneeth Rao T</t>
+  </si>
+  <si>
+    <t>Harishankar Kumar</t>
+  </si>
+  <si>
+    <t>Mohammad Rehan Qureshi</t>
+  </si>
+  <si>
+    <t>Shivansh Singh</t>
+  </si>
+  <si>
+    <t>K Samba Shiva Reddy</t>
+  </si>
+  <si>
+    <t>Dhanush S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,16 +915,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1197,11 +1318,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1264,6 +1398,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1283,78 +1470,31 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29624,8 +29764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B8343-4F39-4B51-983B-AFC89F4FE723}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89:C95"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29638,13 +29778,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -29664,19 +29804,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="59" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="60"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -29685,102 +29825,102 @@
       <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="55"/>
     </row>
     <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="31"/>
+      <c r="E8" s="56"/>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="21"/>
-      <c r="E9" s="31"/>
+      <c r="E9" s="56"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="30"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="30"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="30"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="32"/>
+      <c r="E13" s="57"/>
     </row>
     <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="37" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -29789,131 +29929,131 @@
       <c r="D14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="46"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="46"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="46"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="40"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="46"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="40"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="46"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="40"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="46"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="40"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="46"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="40"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="46"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="40"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="46"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="40"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="46"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="40"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="46"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="41"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="47"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="37" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -29922,113 +30062,113 @@
       <c r="D27" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="41" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="46"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="40"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="46"/>
+      <c r="E29" s="39"/>
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="46"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="40"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="46"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="40"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="46"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="46"/>
+      <c r="E33" s="39"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="40"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="46"/>
+      <c r="E34" s="39"/>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="40"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="46"/>
+      <c r="E35" s="39"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="40"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="46"/>
+      <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="41"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="47"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="37" t="s">
         <v>79</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -30037,104 +30177,104 @@
       <c r="D38" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="38" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="40"/>
-      <c r="B39" s="43"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="46"/>
+      <c r="E39" s="39"/>
     </row>
     <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="40"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="46"/>
+      <c r="E40" s="39"/>
     </row>
     <row r="41" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="40"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="46"/>
+      <c r="E41" s="39"/>
     </row>
     <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="40"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="8" t="s">
         <v>89</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="46"/>
+      <c r="E42" s="39"/>
     </row>
     <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="40"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="8" t="s">
         <v>91</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="46"/>
+      <c r="E43" s="39"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="40"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="46"/>
+      <c r="E44" s="39"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="40"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="46"/>
+      <c r="E45" s="39"/>
     </row>
     <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="40"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="46"/>
+      <c r="E46" s="39"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="41"/>
-      <c r="B47" s="44"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="47"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="37" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -30143,122 +30283,122 @@
       <c r="D48" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="38" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="34"/>
-      <c r="B49" s="37"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D49" s="8"/>
-      <c r="E49" s="55"/>
+      <c r="E49" s="47"/>
     </row>
     <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="34"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="8" t="s">
         <v>103</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="46"/>
+      <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="34"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="46"/>
+      <c r="E51" s="39"/>
     </row>
     <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="34"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="46"/>
+      <c r="E52" s="39"/>
     </row>
     <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="34"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="46"/>
+      <c r="E53" s="39"/>
     </row>
     <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="34"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="46"/>
+      <c r="E54" s="39"/>
     </row>
     <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="34"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="35"/>
       <c r="C55" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="46"/>
+      <c r="E55" s="39"/>
     </row>
     <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="34"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="46"/>
+      <c r="E56" s="39"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="34"/>
-      <c r="B57" s="44"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="47"/>
+      <c r="E57" s="40"/>
     </row>
     <row r="58" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A58" s="35"/>
-      <c r="B58" s="56" t="s">
+      <c r="A58" s="59"/>
+      <c r="B58" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="58"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="31" t="s">
         <v>114</v>
       </c>
       <c r="B59" s="12"/>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="60"/>
+      <c r="D59" s="30"/>
       <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="34"/>
-      <c r="B60" s="36" t="s">
+      <c r="A60" s="58"/>
+      <c r="B60" s="37" t="s">
         <v>115</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -30270,92 +30410,92 @@
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="34"/>
-      <c r="B61" s="37"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="54" t="s">
+      <c r="E61" s="38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="34"/>
-      <c r="B62" s="37"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="46"/>
       <c r="C62" s="8" t="s">
         <v>119</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E62" s="46"/>
+      <c r="E62" s="39"/>
     </row>
     <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="34"/>
-      <c r="B63" s="37"/>
+      <c r="A63" s="58"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E63" s="46"/>
+      <c r="E63" s="39"/>
     </row>
     <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="34"/>
-      <c r="B64" s="37"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E64" s="46"/>
+      <c r="E64" s="39"/>
     </row>
     <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="34"/>
-      <c r="B65" s="37"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="8" t="s">
         <v>125</v>
       </c>
       <c r="D65" s="22"/>
-      <c r="E65" s="46"/>
+      <c r="E65" s="39"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="34"/>
-      <c r="B66" s="37"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="46"/>
+      <c r="E66" s="39"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="34"/>
-      <c r="B67" s="37"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="8" t="s">
         <v>128</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="46"/>
+      <c r="E67" s="39"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="35"/>
-      <c r="B68" s="38"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="60"/>
       <c r="C68" s="10" t="s">
         <v>129</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="47"/>
+      <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="43" t="s">
         <v>191</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -30364,48 +30504,48 @@
       <c r="D69" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E69" s="51" t="s">
+      <c r="E69" s="45" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="40"/>
-      <c r="B70" s="53"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E70" s="46"/>
+      <c r="E70" s="39"/>
     </row>
     <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="40"/>
-      <c r="B71" s="53"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E71" s="46"/>
+      <c r="E71" s="39"/>
     </row>
     <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="40"/>
-      <c r="B72" s="53"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="8" t="s">
         <v>199</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E72" s="46"/>
+      <c r="E72" s="39"/>
     </row>
     <row r="73" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="37" t="s">
         <v>145</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -30414,86 +30554,86 @@
       <c r="D73" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E73" s="51" t="s">
+      <c r="E73" s="45" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="40"/>
-      <c r="B74" s="43"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="35"/>
       <c r="C74" s="8" t="s">
         <v>149</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E74" s="46"/>
+      <c r="E74" s="39"/>
     </row>
     <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="40"/>
-      <c r="B75" s="43"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="8" t="s">
         <v>151</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E75" s="46"/>
+      <c r="E75" s="39"/>
     </row>
     <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="40"/>
-      <c r="B76" s="43"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="35"/>
       <c r="C76" s="8" t="s">
         <v>153</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E76" s="46"/>
+      <c r="E76" s="39"/>
     </row>
     <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="40"/>
-      <c r="B77" s="43"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="35"/>
       <c r="C77" s="8" t="s">
         <v>155</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E77" s="46"/>
+      <c r="E77" s="39"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="40"/>
-      <c r="B78" s="43"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="35"/>
       <c r="C78" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="46"/>
+      <c r="E78" s="39"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="40"/>
-      <c r="B79" s="43"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="35"/>
       <c r="C79" s="8" t="s">
         <v>158</v>
       </c>
       <c r="D79" s="9"/>
-      <c r="E79" s="46"/>
+      <c r="E79" s="39"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="41"/>
-      <c r="B80" s="44"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D80" s="9"/>
-      <c r="E80" s="47"/>
+      <c r="E80" s="40"/>
     </row>
     <row r="81" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="39" t="s">
+      <c r="A81" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="37" t="s">
         <v>162</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -30502,86 +30642,86 @@
       <c r="D81" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E81" s="51" t="s">
+      <c r="E81" s="45" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="40"/>
-      <c r="B82" s="43"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="35"/>
       <c r="C82" s="8" t="s">
         <v>166</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E82" s="46"/>
+      <c r="E82" s="39"/>
     </row>
     <row r="83" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A83" s="40"/>
-      <c r="B83" s="43"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="35"/>
       <c r="C83" s="8" t="s">
         <v>168</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E83" s="46"/>
+      <c r="E83" s="39"/>
     </row>
     <row r="84" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="40"/>
-      <c r="B84" s="43"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="35"/>
       <c r="C84" s="8" t="s">
         <v>170</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E84" s="46"/>
+      <c r="E84" s="39"/>
     </row>
     <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="40"/>
-      <c r="B85" s="43"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="35"/>
       <c r="C85" s="8" t="s">
         <v>172</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E85" s="46"/>
+      <c r="E85" s="39"/>
     </row>
     <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A86" s="40"/>
-      <c r="B86" s="43"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="35"/>
       <c r="C86" s="8" t="s">
         <v>174</v>
       </c>
       <c r="D86" s="9"/>
-      <c r="E86" s="46"/>
+      <c r="E86" s="39"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="40"/>
-      <c r="B87" s="43"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="35"/>
       <c r="C87" s="13" t="s">
         <v>175</v>
       </c>
       <c r="D87" s="9"/>
-      <c r="E87" s="46"/>
+      <c r="E87" s="39"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="41"/>
-      <c r="B88" s="44"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="10" t="s">
         <v>159</v>
       </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="47"/>
+      <c r="E88" s="40"/>
     </row>
     <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="39" t="s">
+      <c r="A89" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="37" t="s">
         <v>178</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -30590,86 +30730,86 @@
       <c r="D89" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E89" s="51" t="s">
+      <c r="E89" s="45" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="40"/>
-      <c r="B90" s="43"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="35"/>
       <c r="C90" s="8" t="s">
         <v>182</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E90" s="46"/>
+      <c r="E90" s="39"/>
     </row>
     <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A91" s="40"/>
-      <c r="B91" s="43"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="35"/>
       <c r="C91" s="8" t="s">
         <v>184</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E91" s="46"/>
+      <c r="E91" s="39"/>
     </row>
     <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="40"/>
-      <c r="B92" s="43"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E92" s="46"/>
+      <c r="E92" s="39"/>
     </row>
     <row r="93" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="40"/>
-      <c r="B93" s="43"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="35"/>
       <c r="C93" s="8" t="s">
         <v>188</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E93" s="46"/>
+      <c r="E93" s="39"/>
     </row>
     <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="40"/>
-      <c r="B94" s="43"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="35"/>
       <c r="C94" s="8" t="s">
         <v>190</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="46"/>
+      <c r="E94" s="39"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="40"/>
-      <c r="B95" s="43"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="35"/>
       <c r="C95" s="16" t="s">
         <v>210</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="46"/>
+      <c r="E95" s="39"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="41"/>
-      <c r="B96" s="44"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="10" t="s">
         <v>159</v>
       </c>
       <c r="D96" s="9"/>
-      <c r="E96" s="47"/>
+      <c r="E96" s="40"/>
     </row>
     <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" s="39" t="s">
+      <c r="A97" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="B97" s="42" t="s">
+      <c r="B97" s="61" t="s">
         <v>215</v>
       </c>
       <c r="C97" s="8" t="s">
@@ -30678,86 +30818,86 @@
       <c r="D97" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E97" s="45" t="s">
+      <c r="E97" s="62" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="40"/>
-      <c r="B98" s="43"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="35"/>
       <c r="C98" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E98" s="46"/>
+      <c r="E98" s="39"/>
     </row>
     <row r="99" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="40"/>
-      <c r="B99" s="43"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="35"/>
       <c r="C99" s="8" t="s">
         <v>135</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E99" s="46"/>
+      <c r="E99" s="39"/>
     </row>
     <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="40"/>
-      <c r="B100" s="43"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="35"/>
       <c r="C100" s="8" t="s">
         <v>143</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E100" s="46"/>
+      <c r="E100" s="39"/>
     </row>
     <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="40"/>
-      <c r="B101" s="43"/>
+      <c r="A101" s="32"/>
+      <c r="B101" s="35"/>
       <c r="C101" s="8" t="s">
         <v>138</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E101" s="46"/>
+      <c r="E101" s="39"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="40"/>
-      <c r="B102" s="43"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="35"/>
       <c r="C102" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D102" s="9"/>
-      <c r="E102" s="46"/>
+      <c r="E102" s="39"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="40"/>
-      <c r="B103" s="43"/>
+      <c r="A103" s="32"/>
+      <c r="B103" s="35"/>
       <c r="C103" s="8" t="s">
         <v>217</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="46"/>
+      <c r="E103" s="39"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="41"/>
-      <c r="B104" s="44"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="10" t="s">
         <v>176</v>
       </c>
       <c r="D104" s="19"/>
-      <c r="E104" s="47"/>
+      <c r="E104" s="40"/>
     </row>
     <row r="105" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="39" t="s">
+      <c r="A105" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="37" t="s">
         <v>209</v>
       </c>
       <c r="C105" s="18" t="s">
@@ -30766,91 +30906,65 @@
       <c r="D105" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="E105" s="48" t="s">
+      <c r="E105" s="63" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="40"/>
-      <c r="B106" s="43"/>
+      <c r="A106" s="32"/>
+      <c r="B106" s="35"/>
       <c r="C106" s="18" t="s">
         <v>201</v>
       </c>
       <c r="D106" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="E106" s="49"/>
+      <c r="E106" s="64"/>
     </row>
     <row r="107" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A107" s="40"/>
-      <c r="B107" s="43"/>
+      <c r="A107" s="32"/>
+      <c r="B107" s="35"/>
       <c r="C107" s="18" t="s">
         <v>202</v>
       </c>
       <c r="D107" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="E107" s="49"/>
+      <c r="E107" s="64"/>
     </row>
     <row r="108" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="40"/>
-      <c r="B108" s="43"/>
+      <c r="A108" s="32"/>
+      <c r="B108" s="35"/>
       <c r="C108" s="18" t="s">
         <v>203</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="E108" s="49"/>
+      <c r="E108" s="64"/>
     </row>
     <row r="109" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A109" s="41"/>
-      <c r="B109" s="44"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="18" t="s">
         <v>204</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="E109" s="50"/>
+      <c r="E109" s="65"/>
     </row>
     <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="23"/>
       <c r="B110" s="24"/>
-      <c r="C110" s="26" t="s">
+      <c r="C110" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="D110" s="27"/>
+      <c r="D110" s="52"/>
       <c r="E110" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="A14:A26"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="E14:E26"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B27:B37"/>
-    <mergeCell ref="E27:E37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="E38:E47"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="E48:E57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E61:E68"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="E89:E96"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="B73:B80"/>
-    <mergeCell ref="E73:E80"/>
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E4:E13"/>
@@ -30867,7 +30981,231 @@
     <mergeCell ref="B81:B88"/>
     <mergeCell ref="E81:E88"/>
     <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="E89:E96"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="B73:B80"/>
+    <mergeCell ref="E73:E80"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="E48:E57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E61:E68"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="B27:B37"/>
+    <mergeCell ref="E27:E37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="E38:E47"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="A14:A26"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="E14:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8173FEC9-13A9-4F56-AEB6-8019FC5C6529}">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="67" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="67" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="67" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="67" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="66" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="66" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="66" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="66" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="66" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="66" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="66" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="66" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="66" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="66" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="66" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="66" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="66" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="66" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="66" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="66" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="66" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="66" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="66" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="66" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="66" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="66" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="66" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="66" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/course-outline/Proposed_AzureSnowFlake_LearningPath_v1.4.xlsx
+++ b/course-outline/Proposed_AzureSnowFlake_LearningPath_v1.4.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\om\Desktop\DE-WithSnowflake\course-outline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44331476-1AEF-4EC5-B3AF-7D2702AEB685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807E6E0E-3B9D-4FE5-8B27-6BCB628992A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Requisite" sheetId="1" r:id="rId1"/>
     <sheet name="TOC" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="223">
   <si>
     <t>Pre-Requisite</t>
   </si>
@@ -698,120 +697,12 @@
   <si>
     <t>5. Synchronization of orders across multiple channels (omnichannel retail)</t>
   </si>
-  <si>
-    <t>Mahi Singh</t>
-  </si>
-  <si>
-    <t>Siddharth Shrivastav</t>
-  </si>
-  <si>
-    <t>Md Saif Ali</t>
-  </si>
-  <si>
-    <t>Rohit Kumar Sharma</t>
-  </si>
-  <si>
-    <t>Malla Dhanraj</t>
-  </si>
-  <si>
-    <t>Aashruti Raj Singh</t>
-  </si>
-  <si>
-    <t>Abishek Nair</t>
-  </si>
-  <si>
-    <t>Tejas Singh</t>
-  </si>
-  <si>
-    <t>Gaurav Singh</t>
-  </si>
-  <si>
-    <t>Vivek KP</t>
-  </si>
-  <si>
-    <t>Yash Saxena</t>
-  </si>
-  <si>
-    <t>Shivendra Tripathi</t>
-  </si>
-  <si>
-    <t>Ravi Kumar</t>
-  </si>
-  <si>
-    <t>Govind Polireddi</t>
-  </si>
-  <si>
-    <t>Vantepaka Ramya</t>
-  </si>
-  <si>
-    <t>Johan Naizu</t>
-  </si>
-  <si>
-    <t>Kanchumarthi Damaruka Siddivinayaka</t>
-  </si>
-  <si>
-    <t>Prabhat Kumar Malviya</t>
-  </si>
-  <si>
-    <t>Pratima Prit</t>
-  </si>
-  <si>
-    <t>Satya Prakash Mahour</t>
-  </si>
-  <si>
-    <t>Nihar Mishra</t>
-  </si>
-  <si>
-    <t>Vedant Sandesh Narkhede</t>
-  </si>
-  <si>
-    <t>Harsh Soni</t>
-  </si>
-  <si>
-    <t>Adarsh Pal</t>
-  </si>
-  <si>
-    <t>Utkarsh Tiwari</t>
-  </si>
-  <si>
-    <t>Zuned Aalim</t>
-  </si>
-  <si>
-    <t>Shivani Narwariya</t>
-  </si>
-  <si>
-    <t>Rishika Dhote</t>
-  </si>
-  <si>
-    <t>Teja Manikanta</t>
-  </si>
-  <si>
-    <t>Rutuja Narayan Tosur</t>
-  </si>
-  <si>
-    <t>Navaneeth Rao T</t>
-  </si>
-  <si>
-    <t>Harishankar Kumar</t>
-  </si>
-  <si>
-    <t>Mohammad Rehan Qureshi</t>
-  </si>
-  <si>
-    <t>Shivansh Singh</t>
-  </si>
-  <si>
-    <t>K Samba Shiva Reddy</t>
-  </si>
-  <si>
-    <t>Dhanush S</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,28 +806,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1318,24 +1197,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1398,59 +1264,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1470,31 +1283,78 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29764,8 +29624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B8343-4F39-4B51-983B-AFC89F4FE723}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29778,13 +29638,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -29804,19 +29664,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="29" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="65" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -29825,102 +29685,102 @@
       <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="56"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="21"/>
-      <c r="E9" s="56"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="55"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="55"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="55"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="57"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -29929,131 +29789,131 @@
       <c r="D14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="54" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="32"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="39"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="39"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="39"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="32"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="39"/>
+      <c r="E21" s="46"/>
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="32"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="39"/>
+      <c r="E22" s="46"/>
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="32"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="39"/>
+      <c r="E23" s="46"/>
     </row>
     <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="32"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="39"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="32"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="39"/>
+      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
-      <c r="B26" s="36"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="40"/>
+      <c r="E26" s="47"/>
     </row>
     <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="36" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -30062,113 +29922,113 @@
       <c r="D27" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="61" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="32"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="39"/>
+      <c r="E28" s="46"/>
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="32"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="39"/>
+      <c r="E29" s="46"/>
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="32"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="39"/>
+      <c r="E30" s="46"/>
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="32"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="39"/>
+      <c r="E31" s="46"/>
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="39"/>
+      <c r="E32" s="46"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="32"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="39"/>
+      <c r="E33" s="46"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="32"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="39"/>
+      <c r="E34" s="46"/>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="32"/>
-      <c r="B35" s="35"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="39"/>
+      <c r="E35" s="46"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="32"/>
-      <c r="B36" s="35"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="39"/>
+      <c r="E36" s="46"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="33"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="40"/>
+      <c r="E37" s="47"/>
     </row>
     <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="36" t="s">
         <v>79</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -30177,104 +30037,104 @@
       <c r="D38" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="54" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="32"/>
-      <c r="B39" s="35"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="39"/>
+      <c r="E39" s="46"/>
     </row>
     <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="32"/>
-      <c r="B40" s="35"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="39"/>
+      <c r="E40" s="46"/>
     </row>
     <row r="41" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="32"/>
-      <c r="B41" s="35"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="39"/>
+      <c r="E41" s="46"/>
     </row>
     <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="32"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="8" t="s">
         <v>89</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="39"/>
+      <c r="E42" s="46"/>
     </row>
     <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="32"/>
-      <c r="B43" s="35"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="8" t="s">
         <v>91</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="39"/>
+      <c r="E43" s="46"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="32"/>
-      <c r="B44" s="35"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="39"/>
+      <c r="E44" s="46"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="32"/>
-      <c r="B45" s="35"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="39"/>
+      <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="32"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="39"/>
+      <c r="E46" s="46"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="33"/>
-      <c r="B47" s="36"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="40"/>
+      <c r="E47" s="47"/>
     </row>
     <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="36" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -30283,122 +30143,122 @@
       <c r="D48" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="38" t="s">
+      <c r="E48" s="54" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="58"/>
-      <c r="B49" s="46"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D49" s="8"/>
-      <c r="E49" s="47"/>
+      <c r="E49" s="55"/>
     </row>
     <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="58"/>
-      <c r="B50" s="35"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="8" t="s">
         <v>103</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="39"/>
+      <c r="E50" s="46"/>
     </row>
     <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="58"/>
-      <c r="B51" s="35"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="39"/>
+      <c r="E51" s="46"/>
     </row>
     <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="58"/>
-      <c r="B52" s="35"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="39"/>
+      <c r="E52" s="46"/>
     </row>
     <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="58"/>
-      <c r="B53" s="35"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="39"/>
+      <c r="E53" s="46"/>
     </row>
     <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="58"/>
-      <c r="B54" s="35"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="39"/>
+      <c r="E54" s="46"/>
     </row>
     <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="58"/>
-      <c r="B55" s="35"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="39"/>
+      <c r="E55" s="46"/>
     </row>
     <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="58"/>
-      <c r="B56" s="35"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="39"/>
+      <c r="E56" s="46"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="58"/>
-      <c r="B57" s="36"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="40"/>
+      <c r="E57" s="47"/>
     </row>
     <row r="58" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A58" s="59"/>
-      <c r="B58" s="48" t="s">
+      <c r="A58" s="35"/>
+      <c r="B58" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="50"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="58"/>
       <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="33" t="s">
         <v>114</v>
       </c>
       <c r="B59" s="12"/>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="30"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="58"/>
-      <c r="B60" s="37" t="s">
+      <c r="A60" s="34"/>
+      <c r="B60" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -30410,92 +30270,92 @@
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="58"/>
-      <c r="B61" s="46"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="38" t="s">
+      <c r="E61" s="54" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="58"/>
-      <c r="B62" s="46"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="8" t="s">
         <v>119</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E62" s="39"/>
+      <c r="E62" s="46"/>
     </row>
     <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="58"/>
-      <c r="B63" s="46"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E63" s="39"/>
+      <c r="E63" s="46"/>
     </row>
     <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="58"/>
-      <c r="B64" s="46"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E64" s="39"/>
+      <c r="E64" s="46"/>
     </row>
     <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="58"/>
-      <c r="B65" s="46"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="8" t="s">
         <v>125</v>
       </c>
       <c r="D65" s="22"/>
-      <c r="E65" s="39"/>
+      <c r="E65" s="46"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="58"/>
-      <c r="B66" s="46"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="39"/>
+      <c r="E66" s="46"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="58"/>
-      <c r="B67" s="46"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="8" t="s">
         <v>128</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="39"/>
+      <c r="E67" s="46"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="59"/>
-      <c r="B68" s="60"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="10" t="s">
         <v>129</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="40"/>
+      <c r="E68" s="47"/>
     </row>
     <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="52" t="s">
         <v>191</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -30504,48 +30364,48 @@
       <c r="D69" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E69" s="45" t="s">
+      <c r="E69" s="51" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="32"/>
-      <c r="B70" s="44"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E70" s="39"/>
+      <c r="E70" s="46"/>
     </row>
     <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="32"/>
-      <c r="B71" s="44"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E71" s="39"/>
+      <c r="E71" s="46"/>
     </row>
     <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="32"/>
-      <c r="B72" s="44"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="8" t="s">
         <v>199</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E72" s="39"/>
+      <c r="E72" s="46"/>
     </row>
     <row r="73" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="36" t="s">
         <v>145</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -30554,86 +30414,86 @@
       <c r="D73" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E73" s="45" t="s">
+      <c r="E73" s="51" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="32"/>
-      <c r="B74" s="35"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="8" t="s">
         <v>149</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E74" s="39"/>
+      <c r="E74" s="46"/>
     </row>
     <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="32"/>
-      <c r="B75" s="35"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="8" t="s">
         <v>151</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E75" s="39"/>
+      <c r="E75" s="46"/>
     </row>
     <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="32"/>
-      <c r="B76" s="35"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="8" t="s">
         <v>153</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E76" s="39"/>
+      <c r="E76" s="46"/>
     </row>
     <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="32"/>
-      <c r="B77" s="35"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="8" t="s">
         <v>155</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E77" s="39"/>
+      <c r="E77" s="46"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="32"/>
-      <c r="B78" s="35"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="39"/>
+      <c r="E78" s="46"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="32"/>
-      <c r="B79" s="35"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="8" t="s">
         <v>158</v>
       </c>
       <c r="D79" s="9"/>
-      <c r="E79" s="39"/>
+      <c r="E79" s="46"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="33"/>
-      <c r="B80" s="36"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D80" s="9"/>
-      <c r="E80" s="40"/>
+      <c r="E80" s="47"/>
     </row>
     <row r="81" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="42" t="s">
+      <c r="A81" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="B81" s="37" t="s">
+      <c r="B81" s="36" t="s">
         <v>162</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -30642,86 +30502,86 @@
       <c r="D81" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E81" s="45" t="s">
+      <c r="E81" s="51" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="32"/>
-      <c r="B82" s="35"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="43"/>
       <c r="C82" s="8" t="s">
         <v>166</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E82" s="39"/>
+      <c r="E82" s="46"/>
     </row>
     <row r="83" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A83" s="32"/>
-      <c r="B83" s="35"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="8" t="s">
         <v>168</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E83" s="39"/>
+      <c r="E83" s="46"/>
     </row>
     <row r="84" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="32"/>
-      <c r="B84" s="35"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="8" t="s">
         <v>170</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E84" s="39"/>
+      <c r="E84" s="46"/>
     </row>
     <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="32"/>
-      <c r="B85" s="35"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="43"/>
       <c r="C85" s="8" t="s">
         <v>172</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E85" s="39"/>
+      <c r="E85" s="46"/>
     </row>
     <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A86" s="32"/>
-      <c r="B86" s="35"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="8" t="s">
         <v>174</v>
       </c>
       <c r="D86" s="9"/>
-      <c r="E86" s="39"/>
+      <c r="E86" s="46"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="32"/>
-      <c r="B87" s="35"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="43"/>
       <c r="C87" s="13" t="s">
         <v>175</v>
       </c>
       <c r="D87" s="9"/>
-      <c r="E87" s="39"/>
+      <c r="E87" s="46"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="33"/>
-      <c r="B88" s="36"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="10" t="s">
         <v>159</v>
       </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="40"/>
+      <c r="E88" s="47"/>
     </row>
     <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="42" t="s">
+      <c r="A89" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="B89" s="37" t="s">
+      <c r="B89" s="36" t="s">
         <v>178</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -30730,86 +30590,86 @@
       <c r="D89" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E89" s="45" t="s">
+      <c r="E89" s="51" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="32"/>
-      <c r="B90" s="35"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="43"/>
       <c r="C90" s="8" t="s">
         <v>182</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E90" s="39"/>
+      <c r="E90" s="46"/>
     </row>
     <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A91" s="32"/>
-      <c r="B91" s="35"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="8" t="s">
         <v>184</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E91" s="39"/>
+      <c r="E91" s="46"/>
     </row>
     <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="32"/>
-      <c r="B92" s="35"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E92" s="39"/>
+      <c r="E92" s="46"/>
     </row>
     <row r="93" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="32"/>
-      <c r="B93" s="35"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="8" t="s">
         <v>188</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E93" s="39"/>
+      <c r="E93" s="46"/>
     </row>
     <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="32"/>
-      <c r="B94" s="35"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="8" t="s">
         <v>190</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="39"/>
+      <c r="E94" s="46"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="32"/>
-      <c r="B95" s="35"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="16" t="s">
         <v>210</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="39"/>
+      <c r="E95" s="46"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="33"/>
-      <c r="B96" s="36"/>
+      <c r="A96" s="41"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="10" t="s">
         <v>159</v>
       </c>
       <c r="D96" s="9"/>
-      <c r="E96" s="40"/>
+      <c r="E96" s="47"/>
     </row>
     <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" s="42" t="s">
+      <c r="A97" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="B97" s="61" t="s">
+      <c r="B97" s="42" t="s">
         <v>215</v>
       </c>
       <c r="C97" s="8" t="s">
@@ -30818,86 +30678,86 @@
       <c r="D97" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E97" s="62" t="s">
+      <c r="E97" s="45" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="32"/>
-      <c r="B98" s="35"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E98" s="39"/>
+      <c r="E98" s="46"/>
     </row>
     <row r="99" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="32"/>
-      <c r="B99" s="35"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="8" t="s">
         <v>135</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E99" s="39"/>
+      <c r="E99" s="46"/>
     </row>
     <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="32"/>
-      <c r="B100" s="35"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="8" t="s">
         <v>143</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E100" s="39"/>
+      <c r="E100" s="46"/>
     </row>
     <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="32"/>
-      <c r="B101" s="35"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="8" t="s">
         <v>138</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E101" s="39"/>
+      <c r="E101" s="46"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="32"/>
-      <c r="B102" s="35"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D102" s="9"/>
-      <c r="E102" s="39"/>
+      <c r="E102" s="46"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="32"/>
-      <c r="B103" s="35"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="43"/>
       <c r="C103" s="8" t="s">
         <v>217</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="39"/>
+      <c r="E103" s="46"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="33"/>
-      <c r="B104" s="36"/>
+      <c r="A104" s="41"/>
+      <c r="B104" s="44"/>
       <c r="C104" s="10" t="s">
         <v>176</v>
       </c>
       <c r="D104" s="19"/>
-      <c r="E104" s="40"/>
+      <c r="E104" s="47"/>
     </row>
     <row r="105" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="42" t="s">
+      <c r="A105" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="36" t="s">
         <v>209</v>
       </c>
       <c r="C105" s="18" t="s">
@@ -30906,65 +30766,91 @@
       <c r="D105" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="E105" s="63" t="s">
+      <c r="E105" s="48" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="32"/>
-      <c r="B106" s="35"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="18" t="s">
         <v>201</v>
       </c>
       <c r="D106" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="E106" s="64"/>
+      <c r="E106" s="49"/>
     </row>
     <row r="107" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A107" s="32"/>
-      <c r="B107" s="35"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="18" t="s">
         <v>202</v>
       </c>
       <c r="D107" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="E107" s="64"/>
+      <c r="E107" s="49"/>
     </row>
     <row r="108" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="32"/>
-      <c r="B108" s="35"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="18" t="s">
         <v>203</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="E108" s="64"/>
+      <c r="E108" s="49"/>
     </row>
     <row r="109" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A109" s="33"/>
-      <c r="B109" s="36"/>
+      <c r="A109" s="41"/>
+      <c r="B109" s="44"/>
       <c r="C109" s="18" t="s">
         <v>204</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="E109" s="65"/>
+      <c r="E109" s="50"/>
     </row>
     <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="23"/>
       <c r="B110" s="24"/>
-      <c r="C110" s="51" t="s">
+      <c r="C110" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D110" s="52"/>
+      <c r="D110" s="27"/>
       <c r="E110" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="A14:A26"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="E14:E26"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="B27:B37"/>
+    <mergeCell ref="E27:E37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="E38:E47"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="E48:E57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E61:E68"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="E89:E96"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="B73:B80"/>
+    <mergeCell ref="E73:E80"/>
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E4:E13"/>
@@ -30981,231 +30867,7 @@
     <mergeCell ref="B81:B88"/>
     <mergeCell ref="E81:E88"/>
     <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="E89:E96"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="B73:B80"/>
-    <mergeCell ref="E73:E80"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="E48:E57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E61:E68"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B27:B37"/>
-    <mergeCell ref="E27:E37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="E38:E47"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="A14:A26"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="E14:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8173FEC9-13A9-4F56-AEB6-8019FC5C6529}">
-  <dimension ref="A1:A36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="67" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="67" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="67" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="67" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="67" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="67" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="67" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="66" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="66" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="66" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="66" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="66" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="66" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="66" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="66" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="66" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="66" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="66" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="66" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="66" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="66" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="66" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="66" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="66" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="66" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="66" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="66" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="66" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="66" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="66" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="66" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="66" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="66" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="66" t="s">
-        <v>258</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/course-outline/Proposed_AzureSnowFlake_LearningPath_v1.4.xlsx
+++ b/course-outline/Proposed_AzureSnowFlake_LearningPath_v1.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\om\Desktop\DE-WithSnowflake\course-outline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807E6E0E-3B9D-4FE5-8B27-6BCB628992A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77532F09-8C00-4B4C-AA88-250F088335DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1264,6 +1264,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1283,79 +1336,26 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29624,8 +29624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B8343-4F39-4B51-983B-AFC89F4FE723}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29638,13 +29638,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -29664,19 +29664,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="59" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="60"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -29685,102 +29685,102 @@
       <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="55"/>
     </row>
     <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="31"/>
+      <c r="E8" s="56"/>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="21"/>
-      <c r="E9" s="31"/>
+      <c r="E9" s="56"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="30"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="30"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="30"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="32"/>
+      <c r="E13" s="57"/>
     </row>
     <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="37" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -29789,131 +29789,131 @@
       <c r="D14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="46"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="46"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="46"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="40"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="46"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="40"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="46"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="40"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="46"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="40"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="46"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="40"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="46"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="40"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="46"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="40"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="46"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="40"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="46"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="41"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="47"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="37" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -29922,113 +29922,113 @@
       <c r="D27" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="41" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="46"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="40"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="46"/>
+      <c r="E29" s="39"/>
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="46"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="40"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="46"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="40"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="46"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="46"/>
+      <c r="E33" s="39"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="40"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="46"/>
+      <c r="E34" s="39"/>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="40"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="46"/>
+      <c r="E35" s="39"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="40"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="46"/>
+      <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="41"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="47"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="37" t="s">
         <v>79</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -30037,104 +30037,104 @@
       <c r="D38" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="38" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="40"/>
-      <c r="B39" s="43"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="46"/>
+      <c r="E39" s="39"/>
     </row>
     <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="40"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="46"/>
+      <c r="E40" s="39"/>
     </row>
     <row r="41" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="40"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="46"/>
+      <c r="E41" s="39"/>
     </row>
     <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="40"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="8" t="s">
         <v>89</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="46"/>
+      <c r="E42" s="39"/>
     </row>
     <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="40"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="8" t="s">
         <v>91</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="46"/>
+      <c r="E43" s="39"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="40"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="46"/>
+      <c r="E44" s="39"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="40"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="46"/>
+      <c r="E45" s="39"/>
     </row>
     <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="40"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="46"/>
+      <c r="E46" s="39"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="41"/>
-      <c r="B47" s="44"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="47"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="37" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -30143,122 +30143,122 @@
       <c r="D48" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="38" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="34"/>
-      <c r="B49" s="37"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D49" s="8"/>
-      <c r="E49" s="55"/>
+      <c r="E49" s="47"/>
     </row>
     <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="34"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="8" t="s">
         <v>103</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="46"/>
+      <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="34"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="46"/>
+      <c r="E51" s="39"/>
     </row>
     <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="34"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="46"/>
+      <c r="E52" s="39"/>
     </row>
     <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="34"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="46"/>
+      <c r="E53" s="39"/>
     </row>
     <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="34"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="46"/>
+      <c r="E54" s="39"/>
     </row>
     <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="34"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="35"/>
       <c r="C55" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="46"/>
+      <c r="E55" s="39"/>
     </row>
     <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="34"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="46"/>
+      <c r="E56" s="39"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="34"/>
-      <c r="B57" s="44"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="47"/>
+      <c r="E57" s="40"/>
     </row>
     <row r="58" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A58" s="35"/>
-      <c r="B58" s="56" t="s">
+      <c r="A58" s="59"/>
+      <c r="B58" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="58"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="31" t="s">
         <v>114</v>
       </c>
       <c r="B59" s="12"/>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="60"/>
+      <c r="D59" s="30"/>
       <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="34"/>
-      <c r="B60" s="36" t="s">
+      <c r="A60" s="58"/>
+      <c r="B60" s="37" t="s">
         <v>115</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -30270,92 +30270,92 @@
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="34"/>
-      <c r="B61" s="37"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="54" t="s">
+      <c r="E61" s="38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="34"/>
-      <c r="B62" s="37"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="46"/>
       <c r="C62" s="8" t="s">
         <v>119</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E62" s="46"/>
+      <c r="E62" s="39"/>
     </row>
     <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="34"/>
-      <c r="B63" s="37"/>
+      <c r="A63" s="58"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E63" s="46"/>
+      <c r="E63" s="39"/>
     </row>
     <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="34"/>
-      <c r="B64" s="37"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E64" s="46"/>
+      <c r="E64" s="39"/>
     </row>
     <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="34"/>
-      <c r="B65" s="37"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="8" t="s">
         <v>125</v>
       </c>
       <c r="D65" s="22"/>
-      <c r="E65" s="46"/>
+      <c r="E65" s="39"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="34"/>
-      <c r="B66" s="37"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="46"/>
+      <c r="E66" s="39"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="34"/>
-      <c r="B67" s="37"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="8" t="s">
         <v>128</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="46"/>
+      <c r="E67" s="39"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="35"/>
-      <c r="B68" s="38"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="60"/>
       <c r="C68" s="10" t="s">
         <v>129</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="47"/>
+      <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="43" t="s">
         <v>191</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -30364,48 +30364,48 @@
       <c r="D69" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E69" s="51" t="s">
+      <c r="E69" s="45" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="40"/>
-      <c r="B70" s="53"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E70" s="46"/>
+      <c r="E70" s="39"/>
     </row>
     <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="40"/>
-      <c r="B71" s="53"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E71" s="46"/>
+      <c r="E71" s="39"/>
     </row>
     <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="40"/>
-      <c r="B72" s="53"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="8" t="s">
         <v>199</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E72" s="46"/>
+      <c r="E72" s="39"/>
     </row>
     <row r="73" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="37" t="s">
         <v>145</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -30414,86 +30414,86 @@
       <c r="D73" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E73" s="51" t="s">
+      <c r="E73" s="45" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="40"/>
-      <c r="B74" s="43"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="35"/>
       <c r="C74" s="8" t="s">
         <v>149</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E74" s="46"/>
+      <c r="E74" s="39"/>
     </row>
     <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="40"/>
-      <c r="B75" s="43"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="8" t="s">
         <v>151</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E75" s="46"/>
+      <c r="E75" s="39"/>
     </row>
     <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="40"/>
-      <c r="B76" s="43"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="35"/>
       <c r="C76" s="8" t="s">
         <v>153</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E76" s="46"/>
+      <c r="E76" s="39"/>
     </row>
     <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="40"/>
-      <c r="B77" s="43"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="35"/>
       <c r="C77" s="8" t="s">
         <v>155</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E77" s="46"/>
+      <c r="E77" s="39"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="40"/>
-      <c r="B78" s="43"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="35"/>
       <c r="C78" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="46"/>
+      <c r="E78" s="39"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="40"/>
-      <c r="B79" s="43"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="35"/>
       <c r="C79" s="8" t="s">
         <v>158</v>
       </c>
       <c r="D79" s="9"/>
-      <c r="E79" s="46"/>
+      <c r="E79" s="39"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="41"/>
-      <c r="B80" s="44"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D80" s="9"/>
-      <c r="E80" s="47"/>
+      <c r="E80" s="40"/>
     </row>
     <row r="81" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="39" t="s">
+      <c r="A81" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="37" t="s">
         <v>162</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -30502,86 +30502,86 @@
       <c r="D81" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E81" s="51" t="s">
+      <c r="E81" s="45" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="40"/>
-      <c r="B82" s="43"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="35"/>
       <c r="C82" s="8" t="s">
         <v>166</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E82" s="46"/>
+      <c r="E82" s="39"/>
     </row>
     <row r="83" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A83" s="40"/>
-      <c r="B83" s="43"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="35"/>
       <c r="C83" s="8" t="s">
         <v>168</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E83" s="46"/>
+      <c r="E83" s="39"/>
     </row>
     <row r="84" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="40"/>
-      <c r="B84" s="43"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="35"/>
       <c r="C84" s="8" t="s">
         <v>170</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E84" s="46"/>
+      <c r="E84" s="39"/>
     </row>
     <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="40"/>
-      <c r="B85" s="43"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="35"/>
       <c r="C85" s="8" t="s">
         <v>172</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E85" s="46"/>
+      <c r="E85" s="39"/>
     </row>
     <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A86" s="40"/>
-      <c r="B86" s="43"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="35"/>
       <c r="C86" s="8" t="s">
         <v>174</v>
       </c>
       <c r="D86" s="9"/>
-      <c r="E86" s="46"/>
+      <c r="E86" s="39"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="40"/>
-      <c r="B87" s="43"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="35"/>
       <c r="C87" s="13" t="s">
         <v>175</v>
       </c>
       <c r="D87" s="9"/>
-      <c r="E87" s="46"/>
+      <c r="E87" s="39"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="41"/>
-      <c r="B88" s="44"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="10" t="s">
         <v>159</v>
       </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="47"/>
+      <c r="E88" s="40"/>
     </row>
     <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="39" t="s">
+      <c r="A89" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="37" t="s">
         <v>178</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -30590,86 +30590,86 @@
       <c r="D89" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E89" s="51" t="s">
+      <c r="E89" s="45" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="40"/>
-      <c r="B90" s="43"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="35"/>
       <c r="C90" s="8" t="s">
         <v>182</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E90" s="46"/>
+      <c r="E90" s="39"/>
     </row>
     <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A91" s="40"/>
-      <c r="B91" s="43"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="35"/>
       <c r="C91" s="8" t="s">
         <v>184</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E91" s="46"/>
+      <c r="E91" s="39"/>
     </row>
     <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="40"/>
-      <c r="B92" s="43"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E92" s="46"/>
+      <c r="E92" s="39"/>
     </row>
     <row r="93" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="40"/>
-      <c r="B93" s="43"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="35"/>
       <c r="C93" s="8" t="s">
         <v>188</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E93" s="46"/>
+      <c r="E93" s="39"/>
     </row>
     <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="40"/>
-      <c r="B94" s="43"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="35"/>
       <c r="C94" s="8" t="s">
         <v>190</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="46"/>
+      <c r="E94" s="39"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="40"/>
-      <c r="B95" s="43"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="35"/>
       <c r="C95" s="16" t="s">
         <v>210</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="46"/>
+      <c r="E95" s="39"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="41"/>
-      <c r="B96" s="44"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="10" t="s">
         <v>159</v>
       </c>
       <c r="D96" s="9"/>
-      <c r="E96" s="47"/>
+      <c r="E96" s="40"/>
     </row>
     <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" s="39" t="s">
+      <c r="A97" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="B97" s="42" t="s">
+      <c r="B97" s="61" t="s">
         <v>215</v>
       </c>
       <c r="C97" s="8" t="s">
@@ -30678,86 +30678,86 @@
       <c r="D97" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E97" s="45" t="s">
+      <c r="E97" s="62" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="40"/>
-      <c r="B98" s="43"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="35"/>
       <c r="C98" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E98" s="46"/>
+      <c r="E98" s="39"/>
     </row>
     <row r="99" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="40"/>
-      <c r="B99" s="43"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="35"/>
       <c r="C99" s="8" t="s">
         <v>135</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E99" s="46"/>
+      <c r="E99" s="39"/>
     </row>
     <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="40"/>
-      <c r="B100" s="43"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="35"/>
       <c r="C100" s="8" t="s">
         <v>143</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E100" s="46"/>
+      <c r="E100" s="39"/>
     </row>
     <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="40"/>
-      <c r="B101" s="43"/>
+      <c r="A101" s="32"/>
+      <c r="B101" s="35"/>
       <c r="C101" s="8" t="s">
         <v>138</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E101" s="46"/>
+      <c r="E101" s="39"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="40"/>
-      <c r="B102" s="43"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="35"/>
       <c r="C102" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D102" s="9"/>
-      <c r="E102" s="46"/>
+      <c r="E102" s="39"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="40"/>
-      <c r="B103" s="43"/>
+      <c r="A103" s="32"/>
+      <c r="B103" s="35"/>
       <c r="C103" s="8" t="s">
         <v>217</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="46"/>
+      <c r="E103" s="39"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="41"/>
-      <c r="B104" s="44"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="10" t="s">
         <v>176</v>
       </c>
       <c r="D104" s="19"/>
-      <c r="E104" s="47"/>
+      <c r="E104" s="40"/>
     </row>
     <row r="105" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="39" t="s">
+      <c r="A105" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="37" t="s">
         <v>209</v>
       </c>
       <c r="C105" s="18" t="s">
@@ -30766,91 +30766,65 @@
       <c r="D105" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="E105" s="48" t="s">
+      <c r="E105" s="63" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="40"/>
-      <c r="B106" s="43"/>
+      <c r="A106" s="32"/>
+      <c r="B106" s="35"/>
       <c r="C106" s="18" t="s">
         <v>201</v>
       </c>
       <c r="D106" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="E106" s="49"/>
+      <c r="E106" s="64"/>
     </row>
     <row r="107" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A107" s="40"/>
-      <c r="B107" s="43"/>
+      <c r="A107" s="32"/>
+      <c r="B107" s="35"/>
       <c r="C107" s="18" t="s">
         <v>202</v>
       </c>
       <c r="D107" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="E107" s="49"/>
+      <c r="E107" s="64"/>
     </row>
     <row r="108" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="40"/>
-      <c r="B108" s="43"/>
+      <c r="A108" s="32"/>
+      <c r="B108" s="35"/>
       <c r="C108" s="18" t="s">
         <v>203</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="E108" s="49"/>
+      <c r="E108" s="64"/>
     </row>
     <row r="109" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A109" s="41"/>
-      <c r="B109" s="44"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="18" t="s">
         <v>204</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="E109" s="50"/>
+      <c r="E109" s="65"/>
     </row>
     <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="23"/>
       <c r="B110" s="24"/>
-      <c r="C110" s="26" t="s">
+      <c r="C110" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="D110" s="27"/>
+      <c r="D110" s="52"/>
       <c r="E110" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="A14:A26"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="E14:E26"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B27:B37"/>
-    <mergeCell ref="E27:E37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="E38:E47"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="E48:E57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E61:E68"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="E89:E96"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="B73:B80"/>
-    <mergeCell ref="E73:E80"/>
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E4:E13"/>
@@ -30867,6 +30841,32 @@
     <mergeCell ref="B81:B88"/>
     <mergeCell ref="E81:E88"/>
     <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="E89:E96"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="B73:B80"/>
+    <mergeCell ref="E73:E80"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="E48:E57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E61:E68"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="B27:B37"/>
+    <mergeCell ref="E27:E37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="E38:E47"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="A14:A26"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="E14:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
